--- a/Base Data/RCI_2022.xlsx
+++ b/Base Data/RCI_2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giocopp/Desktop/LOCALISED-7.1-Paper/Base Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F654270-83E7-BE45-8983-28A2C7ED745F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF54409D-61D6-FF43-B357-91245BB51568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="760" windowWidth="28980" windowHeight="18880" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1260" yWindow="760" windowWidth="28980" windowHeight="18880" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Meta" sheetId="5" r:id="rId1"/>
@@ -3436,7 +3436,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3445,7 +3445,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -78567,7 +78567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:H75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
@@ -79501,7 +79501,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="110" t="s">
+      <c r="A39" s="113" t="s">
         <v>621</v>
       </c>
       <c r="B39" s="111" t="s">
@@ -79527,7 +79527,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="110"/>
+      <c r="A40" s="113"/>
       <c r="B40" s="111"/>
       <c r="C40" s="111"/>
       <c r="D40" s="111"/>
@@ -79825,7 +79825,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="113" t="s">
+      <c r="A52" s="110" t="s">
         <v>658</v>
       </c>
       <c r="B52" s="111" t="s">
@@ -79851,7 +79851,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="113"/>
+      <c r="A53" s="110"/>
       <c r="B53" s="111"/>
       <c r="C53" s="48" t="s">
         <v>664</v>
@@ -79863,7 +79863,7 @@
       <c r="H53" s="109"/>
     </row>
     <row r="54" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="113"/>
+      <c r="A54" s="110"/>
       <c r="B54" s="111"/>
       <c r="C54" s="48" t="s">
         <v>737</v>
@@ -80422,6 +80422,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="F39:F40"/>
     <mergeCell ref="H52:H54"/>
     <mergeCell ref="A52:A54"/>
     <mergeCell ref="B52:B54"/>
@@ -80429,13 +80436,6 @@
     <mergeCell ref="E52:E54"/>
     <mergeCell ref="F52:F54"/>
     <mergeCell ref="G52:G54"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="F39:F40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -80446,8 +80446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:F19"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
